--- a/public/template_barang (2).xlsx
+++ b/public/template_barang (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\POS_Cahya\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCCEE8A-B106-47C6-9613-AFFB73519E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0597EF21-5ACC-4DA2-9A7F-814E1A2F3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9195" yWindow="83" windowWidth="10005" windowHeight="9742" xr2:uid="{DAC229D1-3850-4464-96FF-96E49B92688D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DAC229D1-3850-4464-96FF-96E49B92688D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>kategori_id</t>
   </si>
@@ -51,37 +51,16 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>LTC</t>
-  </si>
-  <si>
     <t>Focallure liptint</t>
   </si>
   <si>
-    <t>TSR</t>
-  </si>
-  <si>
     <t>Set Poder</t>
   </si>
   <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>TTR</t>
-  </si>
-  <si>
-    <t>TRR</t>
-  </si>
-  <si>
-    <t>TSS</t>
-  </si>
-  <si>
-    <t>TTS</t>
-  </si>
-  <si>
-    <t>TRS</t>
-  </si>
-  <si>
-    <t>TWS</t>
+    <t>LTER</t>
+  </si>
+  <si>
+    <t>TRIq</t>
   </si>
 </sst>
 </file>
@@ -433,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940FF853-E3B8-46DF-AB7F-9D83505A47B5}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,15 +437,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>65000</v>
@@ -475,139 +454,20 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>44000</v>
       </c>
       <c r="E3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>44000</v>
-      </c>
-      <c r="E4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>44000</v>
-      </c>
-      <c r="E5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>44000</v>
-      </c>
-      <c r="E6">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>44000</v>
-      </c>
-      <c r="E7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>44000</v>
-      </c>
-      <c r="E8">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>44000</v>
-      </c>
-      <c r="E9">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>44000</v>
-      </c>
-      <c r="E10">
         <v>50000</v>
       </c>
     </row>
